--- a/Manufacturing/BOM and CPL/Explorer_top_bom.xlsx
+++ b/Manufacturing/BOM and CPL/Explorer_top_bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panziyue/Documents/eagle/projects/SSTuino II/Manufacturing/BOM and CPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471FE5CA-864A-A543-BA23-455EED857A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA03079-2316-B940-A907-B232E5A668B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Comment</t>
   </si>
@@ -70,15 +70,9 @@
     <t>R3 R4 R5 R6 R7 R8 R9 R10 R11 R12 R13 R14</t>
   </si>
   <si>
-    <t>C103556</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
-    <t>R2 R27 R28 R29 R30 R31</t>
-  </si>
-  <si>
     <t>C25804</t>
   </si>
   <si>
@@ -158,6 +152,18 @@
   </si>
   <si>
     <t>C145956</t>
+  </si>
+  <si>
+    <t>R2 R31</t>
+  </si>
+  <si>
+    <t>R27 R28 R29 R30</t>
+  </si>
+  <si>
+    <t>C21189</t>
+  </si>
+  <si>
+    <t>C39227</t>
   </si>
 </sst>
 </file>
@@ -306,7 +312,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,6 +490,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -647,11 +659,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1007,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1037,7 +1050,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1051,7 +1064,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1059,24 +1072,24 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1098,7 +1111,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1112,85 +1125,99 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
